--- a/GL140_TestData_CopyJournal_21B.xlsx
+++ b/GL140_TestData_CopyJournal_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6DF99F-CB1B-4569-B1F9-45962F692439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702A46E5-628B-48DA-A4F8-D3454D3373AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,52 +25,15 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{217EABE7-57FD-4FF3-A32B-1EE6EDE53785}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Raj Divekar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This is unique field. Give appropriate AlphaNumeric or Numeric value
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>UserName</t>
   </si>
@@ -81,24 +44,12 @@
     <t>JournalBatch</t>
   </si>
   <si>
-    <t>AccountingPeriod1</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>JournalName</t>
   </si>
   <si>
-    <t>Dec-2020</t>
-  </si>
-  <si>
-    <t>AUTForeignCurr_JournalQC02</t>
-  </si>
-  <si>
-    <t>AutoTestJournalQ21A003NS02</t>
-  </si>
-  <si>
     <t>LowWait</t>
   </si>
   <si>
@@ -121,13 +72,31 @@
   </si>
   <si>
     <t>HighestExplicitWait</t>
+  </si>
+  <si>
+    <t>This is unique field. Give appropriate AlphaNumeric or Numeric value</t>
+  </si>
+  <si>
+    <t>JournalPeriodDate</t>
+  </si>
+  <si>
+    <t>15021990-20210330-slc-2</t>
+  </si>
+  <si>
+    <t>2021-04</t>
+  </si>
+  <si>
+    <t>Testing_Copy_Journal_16</t>
+  </si>
+  <si>
+    <t>"Journal Name" should be available in the system and it should be unposted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,42 +112,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,31 +122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,48 +151,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,117 +488,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="20.08984375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="77" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:77" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5">
+        <v>15</v>
+      </c>
+      <c r="L2" s="5">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5">
+        <v>60</v>
+      </c>
+      <c r="N2" s="5">
+        <v>120</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="7"/>
+    </row>
+    <row r="5" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <v>30</v>
-      </c>
-      <c r="E2" s="7">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7">
-        <v>30</v>
-      </c>
-      <c r="G2" s="7">
-        <v>60</v>
-      </c>
-      <c r="H2" s="7">
-        <v>120</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
